--- a/data/0143.xlsx
+++ b/data/0143.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1217"/>
+  <dimension ref="A1:I1218"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43131,6 +43131,41 @@
         <v>229500</v>
       </c>
     </row>
+    <row r="1218">
+      <c r="A1218" t="n">
+        <v>1581379200</v>
+      </c>
+      <c r="B1218" t="inlineStr">
+        <is>
+          <t>2020-02-11</t>
+        </is>
+      </c>
+      <c r="C1218" t="inlineStr">
+        <is>
+          <t>0143</t>
+        </is>
+      </c>
+      <c r="D1218" t="inlineStr">
+        <is>
+          <t>KEYASIC</t>
+        </is>
+      </c>
+      <c r="E1218" t="n">
+        <v>0.045</v>
+      </c>
+      <c r="F1218" t="n">
+        <v>0.045</v>
+      </c>
+      <c r="G1218" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="H1218" t="n">
+        <v>0.045</v>
+      </c>
+      <c r="I1218" t="n">
+        <v>2987100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0143.xlsx
+++ b/data/0143.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1218"/>
+  <dimension ref="A1:I1219"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43166,6 +43166,41 @@
         <v>2987100</v>
       </c>
     </row>
+    <row r="1219">
+      <c r="A1219" t="n">
+        <v>1581465600</v>
+      </c>
+      <c r="B1219" t="inlineStr">
+        <is>
+          <t>2020-02-12</t>
+        </is>
+      </c>
+      <c r="C1219" t="inlineStr">
+        <is>
+          <t>0143</t>
+        </is>
+      </c>
+      <c r="D1219" t="inlineStr">
+        <is>
+          <t>KEYASIC</t>
+        </is>
+      </c>
+      <c r="E1219" t="n">
+        <v>0.045</v>
+      </c>
+      <c r="F1219" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="G1219" t="n">
+        <v>0.045</v>
+      </c>
+      <c r="H1219" t="n">
+        <v>0.045</v>
+      </c>
+      <c r="I1219" t="n">
+        <v>2126100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0143.xlsx
+++ b/data/0143.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1219"/>
+  <dimension ref="A1:I1220"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43201,6 +43201,41 @@
         <v>2126100</v>
       </c>
     </row>
+    <row r="1220">
+      <c r="A1220" t="n">
+        <v>1581552000</v>
+      </c>
+      <c r="B1220" t="inlineStr">
+        <is>
+          <t>2020-02-13</t>
+        </is>
+      </c>
+      <c r="C1220" t="inlineStr">
+        <is>
+          <t>0143</t>
+        </is>
+      </c>
+      <c r="D1220" t="inlineStr">
+        <is>
+          <t>KEYASIC</t>
+        </is>
+      </c>
+      <c r="E1220" t="n">
+        <v>0.045</v>
+      </c>
+      <c r="F1220" t="n">
+        <v>0.045</v>
+      </c>
+      <c r="G1220" t="n">
+        <v>0.045</v>
+      </c>
+      <c r="H1220" t="n">
+        <v>0.045</v>
+      </c>
+      <c r="I1220" t="n">
+        <v>516900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0143.xlsx
+++ b/data/0143.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1220"/>
+  <dimension ref="A1:I1221"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43236,6 +43236,41 @@
         <v>516900</v>
       </c>
     </row>
+    <row r="1221">
+      <c r="A1221" t="n">
+        <v>1581638400</v>
+      </c>
+      <c r="B1221" t="inlineStr">
+        <is>
+          <t>2020-02-14</t>
+        </is>
+      </c>
+      <c r="C1221" t="inlineStr">
+        <is>
+          <t>0143</t>
+        </is>
+      </c>
+      <c r="D1221" t="inlineStr">
+        <is>
+          <t>KEYASIC</t>
+        </is>
+      </c>
+      <c r="E1221" t="n">
+        <v>0.045</v>
+      </c>
+      <c r="F1221" t="n">
+        <v>0.045</v>
+      </c>
+      <c r="G1221" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="H1221" t="n">
+        <v>0.045</v>
+      </c>
+      <c r="I1221" t="n">
+        <v>95600</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0143.xlsx
+++ b/data/0143.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1221"/>
+  <dimension ref="A1:I1222"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43271,6 +43271,41 @@
         <v>95600</v>
       </c>
     </row>
+    <row r="1222">
+      <c r="A1222" t="n">
+        <v>1581897600</v>
+      </c>
+      <c r="B1222" t="inlineStr">
+        <is>
+          <t>2020-02-17</t>
+        </is>
+      </c>
+      <c r="C1222" t="inlineStr">
+        <is>
+          <t>0143</t>
+        </is>
+      </c>
+      <c r="D1222" t="inlineStr">
+        <is>
+          <t>KEYASIC</t>
+        </is>
+      </c>
+      <c r="E1222" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="F1222" t="n">
+        <v>0.045</v>
+      </c>
+      <c r="G1222" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="H1222" t="n">
+        <v>0.045</v>
+      </c>
+      <c r="I1222" t="n">
+        <v>321100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0143.xlsx
+++ b/data/0143.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1222"/>
+  <dimension ref="A1:I1223"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43306,6 +43306,41 @@
         <v>321100</v>
       </c>
     </row>
+    <row r="1223">
+      <c r="A1223" t="n">
+        <v>1581984000</v>
+      </c>
+      <c r="B1223" t="inlineStr">
+        <is>
+          <t>2020-02-18</t>
+        </is>
+      </c>
+      <c r="C1223" t="inlineStr">
+        <is>
+          <t>0143</t>
+        </is>
+      </c>
+      <c r="D1223" t="inlineStr">
+        <is>
+          <t>KEYASIC</t>
+        </is>
+      </c>
+      <c r="E1223" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="F1223" t="n">
+        <v>0.045</v>
+      </c>
+      <c r="G1223" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="H1223" t="n">
+        <v>0.045</v>
+      </c>
+      <c r="I1223" t="n">
+        <v>83000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0143.xlsx
+++ b/data/0143.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1223"/>
+  <dimension ref="A1:I1224"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43341,6 +43341,41 @@
         <v>83000</v>
       </c>
     </row>
+    <row r="1224">
+      <c r="A1224" t="n">
+        <v>1582070400</v>
+      </c>
+      <c r="B1224" t="inlineStr">
+        <is>
+          <t>2020-02-19</t>
+        </is>
+      </c>
+      <c r="C1224" t="inlineStr">
+        <is>
+          <t>0143</t>
+        </is>
+      </c>
+      <c r="D1224" t="inlineStr">
+        <is>
+          <t>KEYASIC</t>
+        </is>
+      </c>
+      <c r="E1224" t="n">
+        <v>0.045</v>
+      </c>
+      <c r="F1224" t="n">
+        <v>0.045</v>
+      </c>
+      <c r="G1224" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="H1224" t="n">
+        <v>0.045</v>
+      </c>
+      <c r="I1224" t="n">
+        <v>147000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0143.xlsx
+++ b/data/0143.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1224"/>
+  <dimension ref="A1:I1225"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43376,6 +43376,41 @@
         <v>147000</v>
       </c>
     </row>
+    <row r="1225">
+      <c r="A1225" t="n">
+        <v>1582156800</v>
+      </c>
+      <c r="B1225" t="inlineStr">
+        <is>
+          <t>2020-02-20</t>
+        </is>
+      </c>
+      <c r="C1225" t="inlineStr">
+        <is>
+          <t>0143</t>
+        </is>
+      </c>
+      <c r="D1225" t="inlineStr">
+        <is>
+          <t>KEYASIC</t>
+        </is>
+      </c>
+      <c r="E1225" t="n">
+        <v>0.045</v>
+      </c>
+      <c r="F1225" t="n">
+        <v>0.045</v>
+      </c>
+      <c r="G1225" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="H1225" t="n">
+        <v>0.045</v>
+      </c>
+      <c r="I1225" t="n">
+        <v>1028000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0143.xlsx
+++ b/data/0143.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1225"/>
+  <dimension ref="A1:I1226"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43411,6 +43411,41 @@
         <v>1028000</v>
       </c>
     </row>
+    <row r="1226">
+      <c r="A1226" t="n">
+        <v>1582243200</v>
+      </c>
+      <c r="B1226" t="inlineStr">
+        <is>
+          <t>2020-02-21</t>
+        </is>
+      </c>
+      <c r="C1226" t="inlineStr">
+        <is>
+          <t>0143</t>
+        </is>
+      </c>
+      <c r="D1226" t="inlineStr">
+        <is>
+          <t>KEYASIC</t>
+        </is>
+      </c>
+      <c r="E1226" t="n">
+        <v>0.045</v>
+      </c>
+      <c r="F1226" t="n">
+        <v>0.045</v>
+      </c>
+      <c r="G1226" t="n">
+        <v>0.045</v>
+      </c>
+      <c r="H1226" t="n">
+        <v>0.045</v>
+      </c>
+      <c r="I1226" t="n">
+        <v>600000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0143.xlsx
+++ b/data/0143.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1226"/>
+  <dimension ref="A1:I1227"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43446,6 +43446,41 @@
         <v>600000</v>
       </c>
     </row>
+    <row r="1227">
+      <c r="A1227" t="n">
+        <v>1582502400</v>
+      </c>
+      <c r="B1227" t="inlineStr">
+        <is>
+          <t>2020-02-24</t>
+        </is>
+      </c>
+      <c r="C1227" t="inlineStr">
+        <is>
+          <t>0143</t>
+        </is>
+      </c>
+      <c r="D1227" t="inlineStr">
+        <is>
+          <t>KEYASIC</t>
+        </is>
+      </c>
+      <c r="E1227" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="F1227" t="n">
+        <v>0.045</v>
+      </c>
+      <c r="G1227" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="H1227" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="I1227" t="n">
+        <v>334300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0143.xlsx
+++ b/data/0143.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1227"/>
+  <dimension ref="A1:I1228"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43481,6 +43481,41 @@
         <v>334300</v>
       </c>
     </row>
+    <row r="1228">
+      <c r="A1228" t="n">
+        <v>1582588800</v>
+      </c>
+      <c r="B1228" t="inlineStr">
+        <is>
+          <t>2020-02-25</t>
+        </is>
+      </c>
+      <c r="C1228" t="inlineStr">
+        <is>
+          <t>0143</t>
+        </is>
+      </c>
+      <c r="D1228" t="inlineStr">
+        <is>
+          <t>KEYASIC</t>
+        </is>
+      </c>
+      <c r="E1228" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="F1228" t="n">
+        <v>0.045</v>
+      </c>
+      <c r="G1228" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="H1228" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="I1228" t="n">
+        <v>184000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0143.xlsx
+++ b/data/0143.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1228"/>
+  <dimension ref="A1:I1229"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43516,6 +43516,41 @@
         <v>184000</v>
       </c>
     </row>
+    <row r="1229">
+      <c r="A1229" t="n">
+        <v>1582675200</v>
+      </c>
+      <c r="B1229" t="inlineStr">
+        <is>
+          <t>2020-02-26</t>
+        </is>
+      </c>
+      <c r="C1229" t="inlineStr">
+        <is>
+          <t>0143</t>
+        </is>
+      </c>
+      <c r="D1229" t="inlineStr">
+        <is>
+          <t>KEYASIC</t>
+        </is>
+      </c>
+      <c r="E1229" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="F1229" t="n">
+        <v>0.045</v>
+      </c>
+      <c r="G1229" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="H1229" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="I1229" t="n">
+        <v>1197400</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0143.xlsx
+++ b/data/0143.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1229"/>
+  <dimension ref="A1:I1231"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43551,6 +43551,76 @@
         <v>1197400</v>
       </c>
     </row>
+    <row r="1230">
+      <c r="A1230" t="n">
+        <v>1582761600</v>
+      </c>
+      <c r="B1230" t="inlineStr">
+        <is>
+          <t>2020-02-27</t>
+        </is>
+      </c>
+      <c r="C1230" t="inlineStr">
+        <is>
+          <t>0143</t>
+        </is>
+      </c>
+      <c r="D1230" t="inlineStr">
+        <is>
+          <t>KEYASIC</t>
+        </is>
+      </c>
+      <c r="E1230" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="F1230" t="n">
+        <v>0.045</v>
+      </c>
+      <c r="G1230" t="n">
+        <v>0.035</v>
+      </c>
+      <c r="H1230" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="I1230" t="n">
+        <v>18275500</v>
+      </c>
+    </row>
+    <row r="1231">
+      <c r="A1231" t="n">
+        <v>1582848000</v>
+      </c>
+      <c r="B1231" t="inlineStr">
+        <is>
+          <t>2020-02-28</t>
+        </is>
+      </c>
+      <c r="C1231" t="inlineStr">
+        <is>
+          <t>0143</t>
+        </is>
+      </c>
+      <c r="D1231" t="inlineStr">
+        <is>
+          <t>KEYASIC</t>
+        </is>
+      </c>
+      <c r="E1231" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="F1231" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="G1231" t="n">
+        <v>0.035</v>
+      </c>
+      <c r="H1231" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="I1231" t="n">
+        <v>1567200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0143.xlsx
+++ b/data/0143.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1231"/>
+  <dimension ref="A1:I1233"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43621,6 +43621,76 @@
         <v>1567200</v>
       </c>
     </row>
+    <row r="1232">
+      <c r="A1232" t="n">
+        <v>1583107200</v>
+      </c>
+      <c r="B1232" t="inlineStr">
+        <is>
+          <t>2020-03-02</t>
+        </is>
+      </c>
+      <c r="C1232" t="inlineStr">
+        <is>
+          <t>0143</t>
+        </is>
+      </c>
+      <c r="D1232" t="inlineStr">
+        <is>
+          <t>KEYASIC</t>
+        </is>
+      </c>
+      <c r="E1232" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="F1232" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="G1232" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="H1232" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="I1232" t="n">
+        <v>9269400</v>
+      </c>
+    </row>
+    <row r="1233">
+      <c r="A1233" t="n">
+        <v>1583193600</v>
+      </c>
+      <c r="B1233" t="inlineStr">
+        <is>
+          <t>2020-03-03</t>
+        </is>
+      </c>
+      <c r="C1233" t="inlineStr">
+        <is>
+          <t>0143</t>
+        </is>
+      </c>
+      <c r="D1233" t="inlineStr">
+        <is>
+          <t>KEYASIC</t>
+        </is>
+      </c>
+      <c r="E1233" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="F1233" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="G1233" t="n">
+        <v>0.035</v>
+      </c>
+      <c r="H1233" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="I1233" t="n">
+        <v>2461500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0143.xlsx
+++ b/data/0143.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1233"/>
+  <dimension ref="A1:I1234"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43691,6 +43691,41 @@
         <v>2461500</v>
       </c>
     </row>
+    <row r="1234">
+      <c r="A1234" t="n">
+        <v>1583280000</v>
+      </c>
+      <c r="B1234" t="inlineStr">
+        <is>
+          <t>2020-03-04</t>
+        </is>
+      </c>
+      <c r="C1234" t="inlineStr">
+        <is>
+          <t>0143</t>
+        </is>
+      </c>
+      <c r="D1234" t="inlineStr">
+        <is>
+          <t>KEYASIC</t>
+        </is>
+      </c>
+      <c r="E1234" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="F1234" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="G1234" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="H1234" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="I1234" t="n">
+        <v>150500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0143.xlsx
+++ b/data/0143.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1234"/>
+  <dimension ref="A1:I1235"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43726,6 +43726,41 @@
         <v>150500</v>
       </c>
     </row>
+    <row r="1235">
+      <c r="A1235" t="n">
+        <v>1583366400</v>
+      </c>
+      <c r="B1235" t="inlineStr">
+        <is>
+          <t>2020-03-05</t>
+        </is>
+      </c>
+      <c r="C1235" t="inlineStr">
+        <is>
+          <t>0143</t>
+        </is>
+      </c>
+      <c r="D1235" t="inlineStr">
+        <is>
+          <t>KEYASIC</t>
+        </is>
+      </c>
+      <c r="E1235" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="F1235" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="G1235" t="n">
+        <v>0.035</v>
+      </c>
+      <c r="H1235" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="I1235" t="n">
+        <v>1360000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0143.xlsx
+++ b/data/0143.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1235"/>
+  <dimension ref="A1:I1236"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43761,6 +43761,41 @@
         <v>1360000</v>
       </c>
     </row>
+    <row r="1236">
+      <c r="A1236" t="n">
+        <v>1583452800</v>
+      </c>
+      <c r="B1236" t="inlineStr">
+        <is>
+          <t>2020-03-06</t>
+        </is>
+      </c>
+      <c r="C1236" t="inlineStr">
+        <is>
+          <t>0143</t>
+        </is>
+      </c>
+      <c r="D1236" t="inlineStr">
+        <is>
+          <t>KEYASIC</t>
+        </is>
+      </c>
+      <c r="E1236" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="F1236" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="G1236" t="n">
+        <v>0.035</v>
+      </c>
+      <c r="H1236" t="n">
+        <v>0.035</v>
+      </c>
+      <c r="I1236" t="n">
+        <v>1273500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0143.xlsx
+++ b/data/0143.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1236"/>
+  <dimension ref="A1:I1237"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43796,6 +43796,41 @@
         <v>1273500</v>
       </c>
     </row>
+    <row r="1237">
+      <c r="A1237" t="n">
+        <v>1583712000</v>
+      </c>
+      <c r="B1237" t="inlineStr">
+        <is>
+          <t>2020-03-09</t>
+        </is>
+      </c>
+      <c r="C1237" t="inlineStr">
+        <is>
+          <t>0143</t>
+        </is>
+      </c>
+      <c r="D1237" t="inlineStr">
+        <is>
+          <t>KEYASIC</t>
+        </is>
+      </c>
+      <c r="E1237" t="n">
+        <v>0.035</v>
+      </c>
+      <c r="F1237" t="n">
+        <v>0.035</v>
+      </c>
+      <c r="G1237" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="H1237" t="n">
+        <v>0.035</v>
+      </c>
+      <c r="I1237" t="n">
+        <v>4296600</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0143.xlsx
+++ b/data/0143.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1237"/>
+  <dimension ref="A1:I1239"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43831,6 +43831,76 @@
         <v>4296600</v>
       </c>
     </row>
+    <row r="1238">
+      <c r="A1238" t="n">
+        <v>1583798400</v>
+      </c>
+      <c r="B1238" t="inlineStr">
+        <is>
+          <t>2020-03-10</t>
+        </is>
+      </c>
+      <c r="C1238" t="inlineStr">
+        <is>
+          <t>0143</t>
+        </is>
+      </c>
+      <c r="D1238" t="inlineStr">
+        <is>
+          <t>KEYASIC</t>
+        </is>
+      </c>
+      <c r="E1238" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="F1238" t="n">
+        <v>0.035</v>
+      </c>
+      <c r="G1238" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="H1238" t="n">
+        <v>0.035</v>
+      </c>
+      <c r="I1238" t="n">
+        <v>1210100</v>
+      </c>
+    </row>
+    <row r="1239">
+      <c r="A1239" t="n">
+        <v>1583884800</v>
+      </c>
+      <c r="B1239" t="inlineStr">
+        <is>
+          <t>2020-03-11</t>
+        </is>
+      </c>
+      <c r="C1239" t="inlineStr">
+        <is>
+          <t>0143</t>
+        </is>
+      </c>
+      <c r="D1239" t="inlineStr">
+        <is>
+          <t>KEYASIC</t>
+        </is>
+      </c>
+      <c r="E1239" t="n">
+        <v>0.035</v>
+      </c>
+      <c r="F1239" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="G1239" t="n">
+        <v>0.035</v>
+      </c>
+      <c r="H1239" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="I1239" t="n">
+        <v>2320000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0143.xlsx
+++ b/data/0143.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1239"/>
+  <dimension ref="A1:I1240"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43901,6 +43901,41 @@
         <v>2320000</v>
       </c>
     </row>
+    <row r="1240">
+      <c r="A1240" t="n">
+        <v>1583971200</v>
+      </c>
+      <c r="B1240" t="inlineStr">
+        <is>
+          <t>2020-03-12</t>
+        </is>
+      </c>
+      <c r="C1240" t="inlineStr">
+        <is>
+          <t>0143</t>
+        </is>
+      </c>
+      <c r="D1240" t="inlineStr">
+        <is>
+          <t>KEYASIC</t>
+        </is>
+      </c>
+      <c r="E1240" t="n">
+        <v>0.035</v>
+      </c>
+      <c r="F1240" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="G1240" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="H1240" t="n">
+        <v>0.035</v>
+      </c>
+      <c r="I1240" t="n">
+        <v>1222000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0143.xlsx
+++ b/data/0143.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1240"/>
+  <dimension ref="A1:I1241"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43936,6 +43936,41 @@
         <v>1222000</v>
       </c>
     </row>
+    <row r="1241">
+      <c r="A1241" t="n">
+        <v>1584057600</v>
+      </c>
+      <c r="B1241" t="inlineStr">
+        <is>
+          <t>2020-03-13</t>
+        </is>
+      </c>
+      <c r="C1241" t="inlineStr">
+        <is>
+          <t>0143</t>
+        </is>
+      </c>
+      <c r="D1241" t="inlineStr">
+        <is>
+          <t>KEYASIC</t>
+        </is>
+      </c>
+      <c r="E1241" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="F1241" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="G1241" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="H1241" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="I1241" t="n">
+        <v>5219600</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0143.xlsx
+++ b/data/0143.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2222"/>
+  <dimension ref="A1:I2223"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -78306,6 +78306,41 @@
         <v>5219600</v>
       </c>
     </row>
+    <row r="2223">
+      <c r="A2223" t="n">
+        <v>1584316800</v>
+      </c>
+      <c r="B2223" t="inlineStr">
+        <is>
+          <t>2020-03-16</t>
+        </is>
+      </c>
+      <c r="C2223" t="inlineStr">
+        <is>
+          <t>0143</t>
+        </is>
+      </c>
+      <c r="D2223" t="inlineStr">
+        <is>
+          <t>KEYASIC</t>
+        </is>
+      </c>
+      <c r="E2223" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="F2223" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="G2223" t="n">
+        <v>0.025</v>
+      </c>
+      <c r="H2223" t="n">
+        <v>0.025</v>
+      </c>
+      <c r="I2223" t="n">
+        <v>3724200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0143.xlsx
+++ b/data/0143.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2223"/>
+  <dimension ref="A1:I2224"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -78341,6 +78341,41 @@
         <v>3724200</v>
       </c>
     </row>
+    <row r="2224">
+      <c r="A2224" t="n">
+        <v>1584403200</v>
+      </c>
+      <c r="B2224" t="inlineStr">
+        <is>
+          <t>2020-03-17</t>
+        </is>
+      </c>
+      <c r="C2224" t="inlineStr">
+        <is>
+          <t>0143</t>
+        </is>
+      </c>
+      <c r="D2224" t="inlineStr">
+        <is>
+          <t>KEYASIC</t>
+        </is>
+      </c>
+      <c r="E2224" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="F2224" t="n">
+        <v>0.025</v>
+      </c>
+      <c r="G2224" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="H2224" t="n">
+        <v>0.025</v>
+      </c>
+      <c r="I2224" t="n">
+        <v>2081200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0143.xlsx
+++ b/data/0143.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2224"/>
+  <dimension ref="A1:I2225"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -78376,6 +78376,41 @@
         <v>2081200</v>
       </c>
     </row>
+    <row r="2225">
+      <c r="A2225" t="n">
+        <v>1584489600</v>
+      </c>
+      <c r="B2225" t="inlineStr">
+        <is>
+          <t>2020-03-18</t>
+        </is>
+      </c>
+      <c r="C2225" t="inlineStr">
+        <is>
+          <t>0143</t>
+        </is>
+      </c>
+      <c r="D2225" t="inlineStr">
+        <is>
+          <t>KEYASIC</t>
+        </is>
+      </c>
+      <c r="E2225" t="n">
+        <v>0.025</v>
+      </c>
+      <c r="F2225" t="n">
+        <v>0.025</v>
+      </c>
+      <c r="G2225" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="H2225" t="n">
+        <v>0.025</v>
+      </c>
+      <c r="I2225" t="n">
+        <v>1403500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0143.xlsx
+++ b/data/0143.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2225"/>
+  <dimension ref="A1:I2226"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -78411,6 +78411,41 @@
         <v>1403500</v>
       </c>
     </row>
+    <row r="2226">
+      <c r="A2226" t="n">
+        <v>1584576000</v>
+      </c>
+      <c r="B2226" t="inlineStr">
+        <is>
+          <t>2020-03-19</t>
+        </is>
+      </c>
+      <c r="C2226" t="inlineStr">
+        <is>
+          <t>0143</t>
+        </is>
+      </c>
+      <c r="D2226" t="inlineStr">
+        <is>
+          <t>KEYASIC</t>
+        </is>
+      </c>
+      <c r="E2226" t="n">
+        <v>0.025</v>
+      </c>
+      <c r="F2226" t="n">
+        <v>0.025</v>
+      </c>
+      <c r="G2226" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="H2226" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="I2226" t="n">
+        <v>3681000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0143.xlsx
+++ b/data/0143.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2226"/>
+  <dimension ref="A1:I2227"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -78446,6 +78446,41 @@
         <v>3681000</v>
       </c>
     </row>
+    <row r="2227">
+      <c r="A2227" t="n">
+        <v>1584662400</v>
+      </c>
+      <c r="B2227" t="inlineStr">
+        <is>
+          <t>2020-03-20</t>
+        </is>
+      </c>
+      <c r="C2227" t="inlineStr">
+        <is>
+          <t>0143</t>
+        </is>
+      </c>
+      <c r="D2227" t="inlineStr">
+        <is>
+          <t>KEYASIC</t>
+        </is>
+      </c>
+      <c r="E2227" t="n">
+        <v>0.025</v>
+      </c>
+      <c r="F2227" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="G2227" t="n">
+        <v>0.025</v>
+      </c>
+      <c r="H2227" t="n">
+        <v>0.025</v>
+      </c>
+      <c r="I2227" t="n">
+        <v>2556100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0143.xlsx
+++ b/data/0143.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2227"/>
+  <dimension ref="A1:I2228"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -78481,6 +78481,41 @@
         <v>2556100</v>
       </c>
     </row>
+    <row r="2228">
+      <c r="A2228" t="n">
+        <v>1584921600</v>
+      </c>
+      <c r="B2228" t="inlineStr">
+        <is>
+          <t>2020-03-23</t>
+        </is>
+      </c>
+      <c r="C2228" t="inlineStr">
+        <is>
+          <t>0143</t>
+        </is>
+      </c>
+      <c r="D2228" t="inlineStr">
+        <is>
+          <t>KEYASIC</t>
+        </is>
+      </c>
+      <c r="E2228" t="n">
+        <v>0.025</v>
+      </c>
+      <c r="F2228" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="G2228" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="H2228" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="I2228" t="n">
+        <v>2344000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0143.xlsx
+++ b/data/0143.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2228"/>
+  <dimension ref="A1:I2229"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -78516,6 +78516,41 @@
         <v>2344000</v>
       </c>
     </row>
+    <row r="2229">
+      <c r="A2229" t="n">
+        <v>1585008000</v>
+      </c>
+      <c r="B2229" t="inlineStr">
+        <is>
+          <t>2020-03-24</t>
+        </is>
+      </c>
+      <c r="C2229" t="inlineStr">
+        <is>
+          <t>0143</t>
+        </is>
+      </c>
+      <c r="D2229" t="inlineStr">
+        <is>
+          <t>KEYASIC</t>
+        </is>
+      </c>
+      <c r="E2229" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="F2229" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="G2229" t="n">
+        <v>0.025</v>
+      </c>
+      <c r="H2229" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="I2229" t="n">
+        <v>4607000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0143.xlsx
+++ b/data/0143.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2229"/>
+  <dimension ref="A1:I2230"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -78551,6 +78551,41 @@
         <v>4607000</v>
       </c>
     </row>
+    <row r="2230">
+      <c r="A2230" t="n">
+        <v>1585094400</v>
+      </c>
+      <c r="B2230" t="inlineStr">
+        <is>
+          <t>2020-03-25</t>
+        </is>
+      </c>
+      <c r="C2230" t="inlineStr">
+        <is>
+          <t>0143</t>
+        </is>
+      </c>
+      <c r="D2230" t="inlineStr">
+        <is>
+          <t>KEYASIC</t>
+        </is>
+      </c>
+      <c r="E2230" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="F2230" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="G2230" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="H2230" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="I2230" t="n">
+        <v>2412100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0143.xlsx
+++ b/data/0143.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2230"/>
+  <dimension ref="A1:I2231"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -78586,6 +78586,41 @@
         <v>2412100</v>
       </c>
     </row>
+    <row r="2231">
+      <c r="A2231" t="n">
+        <v>1585180800</v>
+      </c>
+      <c r="B2231" t="inlineStr">
+        <is>
+          <t>2020-03-26</t>
+        </is>
+      </c>
+      <c r="C2231" t="inlineStr">
+        <is>
+          <t>0143</t>
+        </is>
+      </c>
+      <c r="D2231" t="inlineStr">
+        <is>
+          <t>KEYASIC</t>
+        </is>
+      </c>
+      <c r="E2231" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="F2231" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="G2231" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="H2231" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="I2231" t="n">
+        <v>644100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0143.xlsx
+++ b/data/0143.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2231"/>
+  <dimension ref="A1:I2232"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -78621,6 +78621,41 @@
         <v>644100</v>
       </c>
     </row>
+    <row r="2232">
+      <c r="A2232" t="n">
+        <v>1585267200</v>
+      </c>
+      <c r="B2232" t="inlineStr">
+        <is>
+          <t>2020-03-27</t>
+        </is>
+      </c>
+      <c r="C2232" t="inlineStr">
+        <is>
+          <t>0143</t>
+        </is>
+      </c>
+      <c r="D2232" t="inlineStr">
+        <is>
+          <t>KEYASIC</t>
+        </is>
+      </c>
+      <c r="E2232" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="F2232" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="G2232" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="H2232" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="I2232" t="n">
+        <v>707000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0143.xlsx
+++ b/data/0143.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2232"/>
+  <dimension ref="A1:I2233"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -78656,6 +78656,41 @@
         <v>707000</v>
       </c>
     </row>
+    <row r="2233">
+      <c r="A2233" t="n">
+        <v>1585526400</v>
+      </c>
+      <c r="B2233" t="inlineStr">
+        <is>
+          <t>2020-03-30</t>
+        </is>
+      </c>
+      <c r="C2233" t="inlineStr">
+        <is>
+          <t>0143</t>
+        </is>
+      </c>
+      <c r="D2233" t="inlineStr">
+        <is>
+          <t>KEYASIC</t>
+        </is>
+      </c>
+      <c r="E2233" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="F2233" t="n">
+        <v>0.035</v>
+      </c>
+      <c r="G2233" t="n">
+        <v>0.025</v>
+      </c>
+      <c r="H2233" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="I2233" t="n">
+        <v>846200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0143.xlsx
+++ b/data/0143.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2233"/>
+  <dimension ref="A1:I2234"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -78691,6 +78691,41 @@
         <v>846200</v>
       </c>
     </row>
+    <row r="2234">
+      <c r="A2234" t="n">
+        <v>1585612800</v>
+      </c>
+      <c r="B2234" t="inlineStr">
+        <is>
+          <t>2020-03-31</t>
+        </is>
+      </c>
+      <c r="C2234" t="inlineStr">
+        <is>
+          <t>0143</t>
+        </is>
+      </c>
+      <c r="D2234" t="inlineStr">
+        <is>
+          <t>KEYASIC</t>
+        </is>
+      </c>
+      <c r="E2234" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="F2234" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="G2234" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="H2234" t="n">
+        <v>0.035</v>
+      </c>
+      <c r="I2234" t="n">
+        <v>3351100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0143.xlsx
+++ b/data/0143.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2234"/>
+  <dimension ref="A1:I2235"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -78726,6 +78726,41 @@
         <v>3351100</v>
       </c>
     </row>
+    <row r="2235">
+      <c r="A2235" t="n">
+        <v>1585699200</v>
+      </c>
+      <c r="B2235" t="inlineStr">
+        <is>
+          <t>2020-04-01</t>
+        </is>
+      </c>
+      <c r="C2235" t="inlineStr">
+        <is>
+          <t>0143</t>
+        </is>
+      </c>
+      <c r="D2235" t="inlineStr">
+        <is>
+          <t>KEYASIC</t>
+        </is>
+      </c>
+      <c r="E2235" t="n">
+        <v>0.035</v>
+      </c>
+      <c r="F2235" t="n">
+        <v>0.045</v>
+      </c>
+      <c r="G2235" t="n">
+        <v>0.035</v>
+      </c>
+      <c r="H2235" t="n">
+        <v>0.045</v>
+      </c>
+      <c r="I2235" t="n">
+        <v>5758400</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0143.xlsx
+++ b/data/0143.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2235"/>
+  <dimension ref="A1:I2236"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -78761,6 +78761,41 @@
         <v>5758400</v>
       </c>
     </row>
+    <row r="2236">
+      <c r="A2236" t="n">
+        <v>1585785600</v>
+      </c>
+      <c r="B2236" t="inlineStr">
+        <is>
+          <t>2020-04-02</t>
+        </is>
+      </c>
+      <c r="C2236" t="inlineStr">
+        <is>
+          <t>0143</t>
+        </is>
+      </c>
+      <c r="D2236" t="inlineStr">
+        <is>
+          <t>KEYASIC</t>
+        </is>
+      </c>
+      <c r="E2236" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="F2236" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="G2236" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="H2236" t="n">
+        <v>0.045</v>
+      </c>
+      <c r="I2236" t="n">
+        <v>4644000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0143.xlsx
+++ b/data/0143.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2236"/>
+  <dimension ref="A1:I2237"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -78796,6 +78796,41 @@
         <v>4644000</v>
       </c>
     </row>
+    <row r="2237">
+      <c r="A2237" t="n">
+        <v>1585872000</v>
+      </c>
+      <c r="B2237" t="inlineStr">
+        <is>
+          <t>2020-04-03</t>
+        </is>
+      </c>
+      <c r="C2237" t="inlineStr">
+        <is>
+          <t>0143</t>
+        </is>
+      </c>
+      <c r="D2237" t="inlineStr">
+        <is>
+          <t>KEYASIC</t>
+        </is>
+      </c>
+      <c r="E2237" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="F2237" t="n">
+        <v>0.055</v>
+      </c>
+      <c r="G2237" t="n">
+        <v>0.045</v>
+      </c>
+      <c r="H2237" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="I2237" t="n">
+        <v>10954500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0143.xlsx
+++ b/data/0143.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2487"/>
+  <dimension ref="A1:I2488"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -87581,6 +87581,41 @@
         <v>10954500</v>
       </c>
     </row>
+    <row r="2488">
+      <c r="A2488" t="n">
+        <v>1586131200</v>
+      </c>
+      <c r="B2488" t="inlineStr">
+        <is>
+          <t>2020-04-06</t>
+        </is>
+      </c>
+      <c r="C2488" t="inlineStr">
+        <is>
+          <t>0143</t>
+        </is>
+      </c>
+      <c r="D2488" t="inlineStr">
+        <is>
+          <t>KEYASIC</t>
+        </is>
+      </c>
+      <c r="E2488" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="F2488" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="G2488" t="n">
+        <v>0.045</v>
+      </c>
+      <c r="H2488" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="I2488" t="n">
+        <v>1091400</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0143.xlsx
+++ b/data/0143.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2488"/>
+  <dimension ref="A1:I2489"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -87616,6 +87616,41 @@
         <v>1091400</v>
       </c>
     </row>
+    <row r="2489">
+      <c r="A2489" t="n">
+        <v>1586217600</v>
+      </c>
+      <c r="B2489" t="inlineStr">
+        <is>
+          <t>2020-04-07</t>
+        </is>
+      </c>
+      <c r="C2489" t="inlineStr">
+        <is>
+          <t>0143</t>
+        </is>
+      </c>
+      <c r="D2489" t="inlineStr">
+        <is>
+          <t>KEYASIC</t>
+        </is>
+      </c>
+      <c r="E2489" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="F2489" t="n">
+        <v>0.065</v>
+      </c>
+      <c r="G2489" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="H2489" t="n">
+        <v>0.065</v>
+      </c>
+      <c r="I2489" t="n">
+        <v>17403200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0143.xlsx
+++ b/data/0143.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2489"/>
+  <dimension ref="A1:I2490"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -87651,6 +87651,41 @@
         <v>17403200</v>
       </c>
     </row>
+    <row r="2490">
+      <c r="A2490" t="n">
+        <v>1586304000</v>
+      </c>
+      <c r="B2490" t="inlineStr">
+        <is>
+          <t>2020-04-08</t>
+        </is>
+      </c>
+      <c r="C2490" t="inlineStr">
+        <is>
+          <t>0143</t>
+        </is>
+      </c>
+      <c r="D2490" t="inlineStr">
+        <is>
+          <t>KEYASIC</t>
+        </is>
+      </c>
+      <c r="E2490" t="n">
+        <v>0.065</v>
+      </c>
+      <c r="F2490" t="n">
+        <v>0.065</v>
+      </c>
+      <c r="G2490" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="H2490" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="I2490" t="n">
+        <v>3336100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0143.xlsx
+++ b/data/0143.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2490"/>
+  <dimension ref="A1:I2491"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -87686,6 +87686,41 @@
         <v>3336100</v>
       </c>
     </row>
+    <row r="2491">
+      <c r="A2491" t="n">
+        <v>1586390400</v>
+      </c>
+      <c r="B2491" t="inlineStr">
+        <is>
+          <t>2020-04-09</t>
+        </is>
+      </c>
+      <c r="C2491" t="inlineStr">
+        <is>
+          <t>0143</t>
+        </is>
+      </c>
+      <c r="D2491" t="inlineStr">
+        <is>
+          <t>KEYASIC</t>
+        </is>
+      </c>
+      <c r="E2491" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="F2491" t="n">
+        <v>0.065</v>
+      </c>
+      <c r="G2491" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="H2491" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="I2491" t="n">
+        <v>2891700</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0143.xlsx
+++ b/data/0143.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2491"/>
+  <dimension ref="A1:I2492"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -87721,6 +87721,41 @@
         <v>2891700</v>
       </c>
     </row>
+    <row r="2492">
+      <c r="A2492" t="n">
+        <v>1586476800</v>
+      </c>
+      <c r="B2492" t="inlineStr">
+        <is>
+          <t>2020-04-10</t>
+        </is>
+      </c>
+      <c r="C2492" t="inlineStr">
+        <is>
+          <t>0143</t>
+        </is>
+      </c>
+      <c r="D2492" t="inlineStr">
+        <is>
+          <t>KEYASIC</t>
+        </is>
+      </c>
+      <c r="E2492" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="F2492" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="G2492" t="n">
+        <v>0.055</v>
+      </c>
+      <c r="H2492" t="n">
+        <v>0.055</v>
+      </c>
+      <c r="I2492" t="n">
+        <v>1998100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0143.xlsx
+++ b/data/0143.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2492"/>
+  <dimension ref="A1:I2493"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -87756,6 +87756,41 @@
         <v>1998100</v>
       </c>
     </row>
+    <row r="2493">
+      <c r="A2493" t="n">
+        <v>1586736000</v>
+      </c>
+      <c r="B2493" t="inlineStr">
+        <is>
+          <t>2020-04-13</t>
+        </is>
+      </c>
+      <c r="C2493" t="inlineStr">
+        <is>
+          <t>0143</t>
+        </is>
+      </c>
+      <c r="D2493" t="inlineStr">
+        <is>
+          <t>KEYASIC</t>
+        </is>
+      </c>
+      <c r="E2493" t="n">
+        <v>0.055</v>
+      </c>
+      <c r="F2493" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="G2493" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="H2493" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="I2493" t="n">
+        <v>4890900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0143.xlsx
+++ b/data/0143.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2493"/>
+  <dimension ref="A1:I2494"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -87791,6 +87791,41 @@
         <v>4890900</v>
       </c>
     </row>
+    <row r="2494">
+      <c r="A2494" t="n">
+        <v>1586822400</v>
+      </c>
+      <c r="B2494" t="inlineStr">
+        <is>
+          <t>2020-04-14</t>
+        </is>
+      </c>
+      <c r="C2494" t="inlineStr">
+        <is>
+          <t>0143</t>
+        </is>
+      </c>
+      <c r="D2494" t="inlineStr">
+        <is>
+          <t>KEYASIC</t>
+        </is>
+      </c>
+      <c r="E2494" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="F2494" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="G2494" t="n">
+        <v>0.045</v>
+      </c>
+      <c r="H2494" t="n">
+        <v>0.055</v>
+      </c>
+      <c r="I2494" t="n">
+        <v>5622600</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0143.xlsx
+++ b/data/0143.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2494"/>
+  <dimension ref="A1:I2495"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -87826,6 +87826,41 @@
         <v>5622600</v>
       </c>
     </row>
+    <row r="2495">
+      <c r="A2495" t="n">
+        <v>1586908800</v>
+      </c>
+      <c r="B2495" t="inlineStr">
+        <is>
+          <t>2020-04-15</t>
+        </is>
+      </c>
+      <c r="C2495" t="inlineStr">
+        <is>
+          <t>0143</t>
+        </is>
+      </c>
+      <c r="D2495" t="inlineStr">
+        <is>
+          <t>KEYASIC</t>
+        </is>
+      </c>
+      <c r="E2495" t="n">
+        <v>0.055</v>
+      </c>
+      <c r="F2495" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="G2495" t="n">
+        <v>0.055</v>
+      </c>
+      <c r="H2495" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="I2495" t="n">
+        <v>2533800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0143.xlsx
+++ b/data/0143.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2495"/>
+  <dimension ref="A1:I2496"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -87861,6 +87861,41 @@
         <v>2533800</v>
       </c>
     </row>
+    <row r="2496">
+      <c r="A2496" t="n">
+        <v>1586995200</v>
+      </c>
+      <c r="B2496" t="inlineStr">
+        <is>
+          <t>2020-04-16</t>
+        </is>
+      </c>
+      <c r="C2496" t="inlineStr">
+        <is>
+          <t>0143</t>
+        </is>
+      </c>
+      <c r="D2496" t="inlineStr">
+        <is>
+          <t>KEYASIC</t>
+        </is>
+      </c>
+      <c r="E2496" t="n">
+        <v>0.055</v>
+      </c>
+      <c r="F2496" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="G2496" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="H2496" t="n">
+        <v>0.055</v>
+      </c>
+      <c r="I2496" t="n">
+        <v>1796200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0143.xlsx
+++ b/data/0143.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2496"/>
+  <dimension ref="A1:I2497"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -87896,6 +87896,41 @@
         <v>1796200</v>
       </c>
     </row>
+    <row r="2497">
+      <c r="A2497" t="n">
+        <v>1587081600</v>
+      </c>
+      <c r="B2497" t="inlineStr">
+        <is>
+          <t>2020-04-17</t>
+        </is>
+      </c>
+      <c r="C2497" t="inlineStr">
+        <is>
+          <t>0143</t>
+        </is>
+      </c>
+      <c r="D2497" t="inlineStr">
+        <is>
+          <t>KEYASIC</t>
+        </is>
+      </c>
+      <c r="E2497" t="n">
+        <v>0.055</v>
+      </c>
+      <c r="F2497" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="G2497" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="H2497" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="I2497" t="n">
+        <v>9142400</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0143.xlsx
+++ b/data/0143.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2497"/>
+  <dimension ref="A1:I2499"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -87931,6 +87931,76 @@
         <v>9142400</v>
       </c>
     </row>
+    <row r="2498">
+      <c r="A2498" t="n">
+        <v>1587340800</v>
+      </c>
+      <c r="B2498" t="inlineStr">
+        <is>
+          <t>2020-04-20</t>
+        </is>
+      </c>
+      <c r="C2498" t="inlineStr">
+        <is>
+          <t>0143</t>
+        </is>
+      </c>
+      <c r="D2498" t="inlineStr">
+        <is>
+          <t>KEYASIC</t>
+        </is>
+      </c>
+      <c r="E2498" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="F2498" t="n">
+        <v>0.055</v>
+      </c>
+      <c r="G2498" t="n">
+        <v>0.045</v>
+      </c>
+      <c r="H2498" t="n">
+        <v>0.045</v>
+      </c>
+      <c r="I2498" t="n">
+        <v>10915400</v>
+      </c>
+    </row>
+    <row r="2499">
+      <c r="A2499" t="n">
+        <v>1587427200</v>
+      </c>
+      <c r="B2499" t="inlineStr">
+        <is>
+          <t>2020-04-21</t>
+        </is>
+      </c>
+      <c r="C2499" t="inlineStr">
+        <is>
+          <t>0143</t>
+        </is>
+      </c>
+      <c r="D2499" t="inlineStr">
+        <is>
+          <t>KEYASIC</t>
+        </is>
+      </c>
+      <c r="E2499" t="n">
+        <v>0.045</v>
+      </c>
+      <c r="F2499" t="n">
+        <v>0.045</v>
+      </c>
+      <c r="G2499" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="H2499" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="I2499" t="n">
+        <v>8751200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0143.xlsx
+++ b/data/0143.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2499"/>
+  <dimension ref="A1:I2500"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -88001,6 +88001,41 @@
         <v>8751200</v>
       </c>
     </row>
+    <row r="2500">
+      <c r="A2500" t="n">
+        <v>1587513600</v>
+      </c>
+      <c r="B2500" t="inlineStr">
+        <is>
+          <t>2020-04-22</t>
+        </is>
+      </c>
+      <c r="C2500" t="inlineStr">
+        <is>
+          <t>0143</t>
+        </is>
+      </c>
+      <c r="D2500" t="inlineStr">
+        <is>
+          <t>KEYASIC</t>
+        </is>
+      </c>
+      <c r="E2500" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="F2500" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="G2500" t="n">
+        <v>0.035</v>
+      </c>
+      <c r="H2500" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="I2500" t="n">
+        <v>7546000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0143.xlsx
+++ b/data/0143.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2500"/>
+  <dimension ref="A1:I2503"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -88036,6 +88036,111 @@
         <v>7546000</v>
       </c>
     </row>
+    <row r="2501">
+      <c r="A2501" t="n">
+        <v>1587600000</v>
+      </c>
+      <c r="B2501" t="inlineStr">
+        <is>
+          <t>2020-04-23</t>
+        </is>
+      </c>
+      <c r="C2501" t="inlineStr">
+        <is>
+          <t>0143</t>
+        </is>
+      </c>
+      <c r="D2501" t="inlineStr">
+        <is>
+          <t>KEYASIC</t>
+        </is>
+      </c>
+      <c r="E2501" t="n">
+        <v>0.045</v>
+      </c>
+      <c r="F2501" t="n">
+        <v>0.045</v>
+      </c>
+      <c r="G2501" t="n">
+        <v>0.045</v>
+      </c>
+      <c r="H2501" t="n">
+        <v>0.045</v>
+      </c>
+      <c r="I2501" t="n">
+        <v>5651300</v>
+      </c>
+    </row>
+    <row r="2502">
+      <c r="A2502" t="n">
+        <v>1587686400</v>
+      </c>
+      <c r="B2502" t="inlineStr">
+        <is>
+          <t>2020-04-24</t>
+        </is>
+      </c>
+      <c r="C2502" t="inlineStr">
+        <is>
+          <t>0143</t>
+        </is>
+      </c>
+      <c r="D2502" t="inlineStr">
+        <is>
+          <t>KEYASIC</t>
+        </is>
+      </c>
+      <c r="E2502" t="n">
+        <v>0.045</v>
+      </c>
+      <c r="F2502" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="G2502" t="n">
+        <v>0.045</v>
+      </c>
+      <c r="H2502" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="I2502" t="n">
+        <v>5550800</v>
+      </c>
+    </row>
+    <row r="2503">
+      <c r="A2503" t="n">
+        <v>1587945600</v>
+      </c>
+      <c r="B2503" t="inlineStr">
+        <is>
+          <t>2020-04-27</t>
+        </is>
+      </c>
+      <c r="C2503" t="inlineStr">
+        <is>
+          <t>0143</t>
+        </is>
+      </c>
+      <c r="D2503" t="inlineStr">
+        <is>
+          <t>KEYASIC</t>
+        </is>
+      </c>
+      <c r="E2503" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="F2503" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="G2503" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="H2503" t="n">
+        <v>0.055</v>
+      </c>
+      <c r="I2503" t="n">
+        <v>14598100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0143.xlsx
+++ b/data/0143.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2503"/>
+  <dimension ref="A1:I2504"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -88141,6 +88141,41 @@
         <v>14598100</v>
       </c>
     </row>
+    <row r="2504">
+      <c r="A2504" t="n">
+        <v>1588032000</v>
+      </c>
+      <c r="B2504" t="inlineStr">
+        <is>
+          <t>2020-04-28</t>
+        </is>
+      </c>
+      <c r="C2504" t="inlineStr">
+        <is>
+          <t>0143</t>
+        </is>
+      </c>
+      <c r="D2504" t="inlineStr">
+        <is>
+          <t>KEYASIC</t>
+        </is>
+      </c>
+      <c r="E2504" t="n">
+        <v>0.055</v>
+      </c>
+      <c r="F2504" t="n">
+        <v>0.055</v>
+      </c>
+      <c r="G2504" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="H2504" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="I2504" t="n">
+        <v>2491600</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0143.xlsx
+++ b/data/0143.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2504"/>
+  <dimension ref="A1:I2505"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -88176,6 +88176,41 @@
         <v>2491600</v>
       </c>
     </row>
+    <row r="2505">
+      <c r="A2505" t="n">
+        <v>1588118400</v>
+      </c>
+      <c r="B2505" t="inlineStr">
+        <is>
+          <t>2020-04-29</t>
+        </is>
+      </c>
+      <c r="C2505" t="inlineStr">
+        <is>
+          <t>0143</t>
+        </is>
+      </c>
+      <c r="D2505" t="inlineStr">
+        <is>
+          <t>KEYASIC</t>
+        </is>
+      </c>
+      <c r="E2505" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="F2505" t="n">
+        <v>0.055</v>
+      </c>
+      <c r="G2505" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="H2505" t="n">
+        <v>0.055</v>
+      </c>
+      <c r="I2505" t="n">
+        <v>1113300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0143.xlsx
+++ b/data/0143.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2505"/>
+  <dimension ref="A1:I2508"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -88211,6 +88211,111 @@
         <v>1113300</v>
       </c>
     </row>
+    <row r="2506">
+      <c r="A2506" t="n">
+        <v>1588204800</v>
+      </c>
+      <c r="B2506" t="inlineStr">
+        <is>
+          <t>2020-04-30</t>
+        </is>
+      </c>
+      <c r="C2506" t="inlineStr">
+        <is>
+          <t>0143</t>
+        </is>
+      </c>
+      <c r="D2506" t="inlineStr">
+        <is>
+          <t>KEYASIC</t>
+        </is>
+      </c>
+      <c r="E2506" t="n">
+        <v>0.055</v>
+      </c>
+      <c r="F2506" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="G2506" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="H2506" t="n">
+        <v>0.055</v>
+      </c>
+      <c r="I2506" t="n">
+        <v>9142100</v>
+      </c>
+    </row>
+    <row r="2507">
+      <c r="A2507" t="n">
+        <v>1588550400</v>
+      </c>
+      <c r="B2507" t="inlineStr">
+        <is>
+          <t>2020-05-04</t>
+        </is>
+      </c>
+      <c r="C2507" t="inlineStr">
+        <is>
+          <t>0143</t>
+        </is>
+      </c>
+      <c r="D2507" t="inlineStr">
+        <is>
+          <t>KEYASIC</t>
+        </is>
+      </c>
+      <c r="E2507" t="n">
+        <v>0.055</v>
+      </c>
+      <c r="F2507" t="n">
+        <v>0.105</v>
+      </c>
+      <c r="G2507" t="n">
+        <v>0.055</v>
+      </c>
+      <c r="H2507" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="I2507" t="n">
+        <v>146024200</v>
+      </c>
+    </row>
+    <row r="2508">
+      <c r="A2508" t="n">
+        <v>1588636800</v>
+      </c>
+      <c r="B2508" t="inlineStr">
+        <is>
+          <t>2020-05-05</t>
+        </is>
+      </c>
+      <c r="C2508" t="inlineStr">
+        <is>
+          <t>0143</t>
+        </is>
+      </c>
+      <c r="D2508" t="inlineStr">
+        <is>
+          <t>KEYASIC</t>
+        </is>
+      </c>
+      <c r="E2508" t="n">
+        <v>0.08500000000000001</v>
+      </c>
+      <c r="F2508" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="G2508" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="H2508" t="n">
+        <v>0.08500000000000001</v>
+      </c>
+      <c r="I2508" t="n">
+        <v>29608100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
